--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ebi3-Il27ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ebi3-Il27ra.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.293566666666667</v>
+        <v>4.772158333333334</v>
       </c>
       <c r="H2">
-        <v>21.8807</v>
+        <v>14.316475</v>
       </c>
       <c r="I2">
-        <v>0.2546895690137356</v>
+        <v>0.2444103987677044</v>
       </c>
       <c r="J2">
-        <v>0.2546895690137356</v>
+        <v>0.2444103987677044</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.051123666666667</v>
+        <v>2.373213</v>
       </c>
       <c r="N2">
-        <v>3.153371</v>
+        <v>7.119638999999999</v>
       </c>
       <c r="O2">
-        <v>0.4180667648183785</v>
+        <v>0.6442034269559781</v>
       </c>
       <c r="P2">
-        <v>0.4180667648183785</v>
+        <v>0.6442034269559781</v>
       </c>
       <c r="Q2">
-        <v>7.666440537744446</v>
+        <v>11.325348194725</v>
       </c>
       <c r="R2">
-        <v>68.99796483970002</v>
+        <v>101.928133752525</v>
       </c>
       <c r="S2">
-        <v>0.1064772441505596</v>
+        <v>0.1574500164698323</v>
       </c>
       <c r="T2">
-        <v>0.1064772441505596</v>
+        <v>0.1574500164698323</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.293566666666667</v>
+        <v>4.772158333333334</v>
       </c>
       <c r="H3">
-        <v>21.8807</v>
+        <v>14.316475</v>
       </c>
       <c r="I3">
-        <v>0.2546895690137356</v>
+        <v>0.2444103987677044</v>
       </c>
       <c r="J3">
-        <v>0.2546895690137356</v>
+        <v>0.2444103987677044</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.275402</v>
       </c>
       <c r="O3">
-        <v>0.3016676289600139</v>
+        <v>0.2058842823494965</v>
       </c>
       <c r="P3">
-        <v>0.3016676289600139</v>
+        <v>0.2058842823494965</v>
       </c>
       <c r="Q3">
-        <v>5.531932060155556</v>
+        <v>3.619526205327778</v>
       </c>
       <c r="R3">
-        <v>49.78738854140001</v>
+        <v>32.57573584795</v>
       </c>
       <c r="S3">
-        <v>0.07683159840522144</v>
+        <v>0.05032025954904308</v>
       </c>
       <c r="T3">
-        <v>0.07683159840522145</v>
+        <v>0.05032025954904308</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.293566666666667</v>
+        <v>4.772158333333334</v>
       </c>
       <c r="H4">
-        <v>21.8807</v>
+        <v>14.316475</v>
       </c>
       <c r="I4">
-        <v>0.2546895690137356</v>
+        <v>0.2444103987677044</v>
       </c>
       <c r="J4">
-        <v>0.2546895690137356</v>
+        <v>0.2444103987677044</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.218654</v>
+        <v>0.2202126666666667</v>
       </c>
       <c r="N4">
-        <v>0.655962</v>
+        <v>0.6606380000000001</v>
       </c>
       <c r="O4">
-        <v>0.08696595205061287</v>
+        <v>0.05977624196638952</v>
       </c>
       <c r="P4">
-        <v>0.08696595205061287</v>
+        <v>0.05977624196638952</v>
       </c>
       <c r="Q4">
-        <v>1.594767525933334</v>
+        <v>1.050889712338889</v>
       </c>
       <c r="R4">
-        <v>14.3529077334</v>
+        <v>9.458007411050001</v>
       </c>
       <c r="S4">
-        <v>0.02214932084663979</v>
+        <v>0.01460993513584005</v>
       </c>
       <c r="T4">
-        <v>0.02214932084663979</v>
+        <v>0.01460993513584005</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.293566666666667</v>
+        <v>4.772158333333334</v>
       </c>
       <c r="H5">
-        <v>21.8807</v>
+        <v>14.316475</v>
       </c>
       <c r="I5">
-        <v>0.2546895690137356</v>
+        <v>0.2444103987677044</v>
       </c>
       <c r="J5">
-        <v>0.2546895690137356</v>
+        <v>0.2444103987677044</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.03987266666666667</v>
+        <v>0.1443573333333333</v>
       </c>
       <c r="N5">
-        <v>0.119618</v>
+        <v>0.433072</v>
       </c>
       <c r="O5">
-        <v>0.0158586827474613</v>
+        <v>0.03918547928043534</v>
       </c>
       <c r="P5">
-        <v>0.0158586827474613</v>
+        <v>0.03918547928043534</v>
       </c>
       <c r="Q5">
-        <v>0.2908139525111111</v>
+        <v>0.6888960512444445</v>
       </c>
       <c r="R5">
-        <v>2.6173255726</v>
+        <v>6.2000644612</v>
       </c>
       <c r="S5">
-        <v>0.004039041074076483</v>
+        <v>0.009577338616834821</v>
       </c>
       <c r="T5">
-        <v>0.004039041074076484</v>
+        <v>0.009577338616834821</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.293566666666667</v>
+        <v>4.772158333333334</v>
       </c>
       <c r="H6">
-        <v>21.8807</v>
+        <v>14.316475</v>
       </c>
       <c r="I6">
-        <v>0.2546895690137356</v>
+        <v>0.2444103987677044</v>
       </c>
       <c r="J6">
-        <v>0.2546895690137356</v>
+        <v>0.2444103987677044</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.064611</v>
+        <v>0.09103299999999999</v>
       </c>
       <c r="N6">
-        <v>0.193833</v>
+        <v>0.273099</v>
       </c>
       <c r="O6">
-        <v>0.02569793888034131</v>
+        <v>0.0247107067785671</v>
       </c>
       <c r="P6">
-        <v>0.02569793888034131</v>
+        <v>0.0247107067785671</v>
       </c>
       <c r="Q6">
-        <v>0.4712446359</v>
+        <v>0.4344238895583333</v>
       </c>
       <c r="R6">
-        <v>4.241201723100001</v>
+        <v>3.909815006025</v>
       </c>
       <c r="S6">
-        <v>0.006544996977975447</v>
+        <v>0.0060395536975814</v>
       </c>
       <c r="T6">
-        <v>0.006544996977975448</v>
+        <v>0.006039553697581401</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.293566666666667</v>
+        <v>4.772158333333334</v>
       </c>
       <c r="H7">
-        <v>21.8807</v>
+        <v>14.316475</v>
       </c>
       <c r="I7">
-        <v>0.2546895690137356</v>
+        <v>0.2444103987677044</v>
       </c>
       <c r="J7">
-        <v>0.2546895690137356</v>
+        <v>0.2444103987677044</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.3815196666666667</v>
+        <v>0.09666633333333334</v>
       </c>
       <c r="N7">
-        <v>1.144559</v>
+        <v>0.289999</v>
       </c>
       <c r="O7">
-        <v>0.1517430325431922</v>
+        <v>0.02623986266913347</v>
       </c>
       <c r="P7">
-        <v>0.1517430325431922</v>
+        <v>0.02623986266913347</v>
       </c>
       <c r="Q7">
-        <v>2.782639123477778</v>
+        <v>0.4613070481694445</v>
       </c>
       <c r="R7">
-        <v>25.0437521113</v>
+        <v>4.151763433525001</v>
       </c>
       <c r="S7">
-        <v>0.03864736755926287</v>
+        <v>0.006413295298572711</v>
       </c>
       <c r="T7">
-        <v>0.03864736755926288</v>
+        <v>0.006413295298572711</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.65871166666667</v>
+        <v>11.54138666666667</v>
       </c>
       <c r="H8">
-        <v>34.976135</v>
+        <v>34.62416</v>
       </c>
       <c r="I8">
-        <v>0.4071193677037862</v>
+        <v>0.591102541135077</v>
       </c>
       <c r="J8">
-        <v>0.4071193677037861</v>
+        <v>0.591102541135077</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.051123666666667</v>
+        <v>2.373213</v>
       </c>
       <c r="N8">
-        <v>3.153371</v>
+        <v>7.119638999999999</v>
       </c>
       <c r="O8">
-        <v>0.4180667648183785</v>
+        <v>0.6442034269559781</v>
       </c>
       <c r="P8">
-        <v>0.4180667648183785</v>
+        <v>0.6442034269559781</v>
       </c>
       <c r="Q8">
-        <v>12.25474775567611</v>
+        <v>27.39016887536</v>
       </c>
       <c r="R8">
-        <v>110.292729801085</v>
+        <v>246.51151987824</v>
       </c>
       <c r="S8">
-        <v>0.1702030769508257</v>
+        <v>0.3807902826816036</v>
       </c>
       <c r="T8">
-        <v>0.1702030769508257</v>
+        <v>0.3807902826816036</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.65871166666667</v>
+        <v>11.54138666666667</v>
       </c>
       <c r="H9">
-        <v>34.976135</v>
+        <v>34.62416</v>
       </c>
       <c r="I9">
-        <v>0.4071193677037862</v>
+        <v>0.591102541135077</v>
       </c>
       <c r="J9">
-        <v>0.4071193677037861</v>
+        <v>0.591102541135077</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>2.275402</v>
       </c>
       <c r="O9">
-        <v>0.3016676289600139</v>
+        <v>0.2058842823494965</v>
       </c>
       <c r="P9">
-        <v>0.3016676289600139</v>
+        <v>0.2058842823494965</v>
       </c>
       <c r="Q9">
-        <v>8.84275194791889</v>
+        <v>8.753764768035557</v>
       </c>
       <c r="R9">
-        <v>79.58476753127</v>
+        <v>78.78388291232001</v>
       </c>
       <c r="S9">
-        <v>0.1228147343589012</v>
+        <v>0.1216987224765591</v>
       </c>
       <c r="T9">
-        <v>0.1228147343589012</v>
+        <v>0.1216987224765591</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.65871166666667</v>
+        <v>11.54138666666667</v>
       </c>
       <c r="H10">
-        <v>34.976135</v>
+        <v>34.62416</v>
       </c>
       <c r="I10">
-        <v>0.4071193677037862</v>
+        <v>0.591102541135077</v>
       </c>
       <c r="J10">
-        <v>0.4071193677037861</v>
+        <v>0.591102541135077</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.218654</v>
+        <v>0.2202126666666667</v>
       </c>
       <c r="N10">
-        <v>0.655962</v>
+        <v>0.6606380000000001</v>
       </c>
       <c r="O10">
-        <v>0.08696595205061287</v>
+        <v>0.05977624196638952</v>
       </c>
       <c r="P10">
-        <v>0.08696595205061287</v>
+        <v>0.05977624196638952</v>
       </c>
       <c r="Q10">
-        <v>2.549223940763333</v>
+        <v>2.541559534897778</v>
       </c>
       <c r="R10">
-        <v>22.94301546687</v>
+        <v>22.87403581408</v>
       </c>
       <c r="S10">
-        <v>0.0354055234106033</v>
+        <v>0.03533388852583808</v>
       </c>
       <c r="T10">
-        <v>0.0354055234106033</v>
+        <v>0.03533388852583808</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.65871166666667</v>
+        <v>11.54138666666667</v>
       </c>
       <c r="H11">
-        <v>34.976135</v>
+        <v>34.62416</v>
       </c>
       <c r="I11">
-        <v>0.4071193677037862</v>
+        <v>0.591102541135077</v>
       </c>
       <c r="J11">
-        <v>0.4071193677037861</v>
+        <v>0.591102541135077</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.03987266666666667</v>
+        <v>0.1443573333333333</v>
       </c>
       <c r="N11">
-        <v>0.119618</v>
+        <v>0.433072</v>
       </c>
       <c r="O11">
-        <v>0.0158586827474613</v>
+        <v>0.03918547928043534</v>
       </c>
       <c r="P11">
-        <v>0.0158586827474613</v>
+        <v>0.03918547928043534</v>
       </c>
       <c r="Q11">
-        <v>0.4648639240477778</v>
+        <v>1.666083802168889</v>
       </c>
       <c r="R11">
-        <v>4.18377531643</v>
+        <v>14.99475421952</v>
       </c>
       <c r="S11">
-        <v>0.006456376892761386</v>
+        <v>0.02316263637826124</v>
       </c>
       <c r="T11">
-        <v>0.006456376892761387</v>
+        <v>0.02316263637826124</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.65871166666667</v>
+        <v>11.54138666666667</v>
       </c>
       <c r="H12">
-        <v>34.976135</v>
+        <v>34.62416</v>
       </c>
       <c r="I12">
-        <v>0.4071193677037862</v>
+        <v>0.591102541135077</v>
       </c>
       <c r="J12">
-        <v>0.4071193677037861</v>
+        <v>0.591102541135077</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.064611</v>
+        <v>0.09103299999999999</v>
       </c>
       <c r="N12">
-        <v>0.193833</v>
+        <v>0.273099</v>
       </c>
       <c r="O12">
-        <v>0.02569793888034131</v>
+        <v>0.0247107067785671</v>
       </c>
       <c r="P12">
-        <v>0.02569793888034131</v>
+        <v>0.0247107067785671</v>
       </c>
       <c r="Q12">
-        <v>0.753281019495</v>
+        <v>1.050647052426667</v>
       </c>
       <c r="R12">
-        <v>6.779529175455</v>
+        <v>9.45582347184</v>
       </c>
       <c r="S12">
-        <v>0.01046212862825509</v>
+        <v>0.01460656157005478</v>
       </c>
       <c r="T12">
-        <v>0.01046212862825509</v>
+        <v>0.01460656157005478</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.65871166666667</v>
+        <v>11.54138666666667</v>
       </c>
       <c r="H13">
-        <v>34.976135</v>
+        <v>34.62416</v>
       </c>
       <c r="I13">
-        <v>0.4071193677037862</v>
+        <v>0.591102541135077</v>
       </c>
       <c r="J13">
-        <v>0.4071193677037861</v>
+        <v>0.591102541135077</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.3815196666666667</v>
+        <v>0.09666633333333334</v>
       </c>
       <c r="N13">
-        <v>1.144559</v>
+        <v>0.289999</v>
       </c>
       <c r="O13">
-        <v>0.1517430325431922</v>
+        <v>0.02623986266913347</v>
       </c>
       <c r="P13">
-        <v>0.1517430325431922</v>
+        <v>0.02623986266913347</v>
       </c>
       <c r="Q13">
-        <v>4.448027788829445</v>
+        <v>1.115663530648889</v>
       </c>
       <c r="R13">
-        <v>40.032250099465</v>
+        <v>10.04097177584</v>
       </c>
       <c r="S13">
-        <v>0.06177752746243943</v>
+        <v>0.01551044950276024</v>
       </c>
       <c r="T13">
-        <v>0.06177752746243944</v>
+        <v>0.01551044950276024</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.684806</v>
+        <v>3.211640333333333</v>
       </c>
       <c r="H14">
-        <v>29.054418</v>
+        <v>9.634920999999999</v>
       </c>
       <c r="I14">
-        <v>0.3381910632824783</v>
+        <v>0.1644870600972187</v>
       </c>
       <c r="J14">
-        <v>0.3381910632824783</v>
+        <v>0.1644870600972187</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.051123666666667</v>
+        <v>2.373213</v>
       </c>
       <c r="N14">
-        <v>3.153371</v>
+        <v>7.119638999999999</v>
       </c>
       <c r="O14">
-        <v>0.4180667648183785</v>
+        <v>0.6442034269559781</v>
       </c>
       <c r="P14">
-        <v>0.4180667648183785</v>
+        <v>0.6442034269559781</v>
       </c>
       <c r="Q14">
-        <v>10.17992879367533</v>
+        <v>7.621906590390998</v>
       </c>
       <c r="R14">
-        <v>91.61935914307801</v>
+        <v>68.59715931351899</v>
       </c>
       <c r="S14">
-        <v>0.1413864437169932</v>
+        <v>0.1059631278045422</v>
       </c>
       <c r="T14">
-        <v>0.1413864437169932</v>
+        <v>0.1059631278045422</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.684806</v>
+        <v>3.211640333333333</v>
       </c>
       <c r="H15">
-        <v>29.054418</v>
+        <v>9.634920999999999</v>
       </c>
       <c r="I15">
-        <v>0.3381910632824783</v>
+        <v>0.1644870600972187</v>
       </c>
       <c r="J15">
-        <v>0.3381910632824783</v>
+        <v>0.1644870600972187</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>2.275402</v>
       </c>
       <c r="O15">
-        <v>0.3016676289600139</v>
+        <v>0.2058842823494965</v>
       </c>
       <c r="P15">
-        <v>0.3016676289600139</v>
+        <v>0.2058842823494965</v>
       </c>
       <c r="Q15">
-        <v>7.345608980670667</v>
+        <v>2.435924279249111</v>
       </c>
       <c r="R15">
-        <v>66.11048082603601</v>
+        <v>21.923318513242</v>
       </c>
       <c r="S15">
-        <v>0.1020212961958912</v>
+        <v>0.03386530032389437</v>
       </c>
       <c r="T15">
-        <v>0.1020212961958912</v>
+        <v>0.03386530032389437</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.684806</v>
+        <v>3.211640333333333</v>
       </c>
       <c r="H16">
-        <v>29.054418</v>
+        <v>9.634920999999999</v>
       </c>
       <c r="I16">
-        <v>0.3381910632824783</v>
+        <v>0.1644870600972187</v>
       </c>
       <c r="J16">
-        <v>0.3381910632824783</v>
+        <v>0.1644870600972187</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.218654</v>
+        <v>0.2202126666666667</v>
       </c>
       <c r="N16">
-        <v>0.655962</v>
+        <v>0.6606380000000001</v>
       </c>
       <c r="O16">
-        <v>0.08696595205061287</v>
+        <v>0.05977624196638952</v>
       </c>
       <c r="P16">
-        <v>0.08696595205061287</v>
+        <v>0.05977624196638952</v>
       </c>
       <c r="Q16">
-        <v>2.117621571124</v>
+        <v>0.7072438821775555</v>
       </c>
       <c r="R16">
-        <v>19.058594140116</v>
+        <v>6.365194939597999</v>
       </c>
       <c r="S16">
-        <v>0.02941110779336979</v>
+        <v>0.009832418304711399</v>
       </c>
       <c r="T16">
-        <v>0.02941110779336979</v>
+        <v>0.009832418304711399</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.684806</v>
+        <v>3.211640333333333</v>
       </c>
       <c r="H17">
-        <v>29.054418</v>
+        <v>9.634920999999999</v>
       </c>
       <c r="I17">
-        <v>0.3381910632824783</v>
+        <v>0.1644870600972187</v>
       </c>
       <c r="J17">
-        <v>0.3381910632824783</v>
+        <v>0.1644870600972187</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.03987266666666667</v>
+        <v>0.1443573333333333</v>
       </c>
       <c r="N17">
-        <v>0.119618</v>
+        <v>0.433072</v>
       </c>
       <c r="O17">
-        <v>0.0158586827474613</v>
+        <v>0.03918547928043534</v>
       </c>
       <c r="P17">
-        <v>0.0158586827474613</v>
+        <v>0.03918547928043534</v>
       </c>
       <c r="Q17">
-        <v>0.3861590413693333</v>
+        <v>0.4636238341457777</v>
       </c>
       <c r="R17">
-        <v>3.475431372324</v>
+        <v>4.172614507312</v>
       </c>
       <c r="S17">
-        <v>0.005363264780623431</v>
+        <v>0.006445504285339286</v>
       </c>
       <c r="T17">
-        <v>0.005363264780623433</v>
+        <v>0.006445504285339286</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.684806</v>
+        <v>3.211640333333333</v>
       </c>
       <c r="H18">
-        <v>29.054418</v>
+        <v>9.634920999999999</v>
       </c>
       <c r="I18">
-        <v>0.3381910632824783</v>
+        <v>0.1644870600972187</v>
       </c>
       <c r="J18">
-        <v>0.3381910632824783</v>
+        <v>0.1644870600972187</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.064611</v>
+        <v>0.09103299999999999</v>
       </c>
       <c r="N18">
-        <v>0.193833</v>
+        <v>0.273099</v>
       </c>
       <c r="O18">
-        <v>0.02569793888034131</v>
+        <v>0.0247107067785671</v>
       </c>
       <c r="P18">
-        <v>0.02569793888034131</v>
+        <v>0.0247107067785671</v>
       </c>
       <c r="Q18">
-        <v>0.625745000466</v>
+        <v>0.2923652544643333</v>
       </c>
       <c r="R18">
-        <v>5.631705004194001</v>
+        <v>2.631287290178999</v>
       </c>
       <c r="S18">
-        <v>0.008690813274110766</v>
+        <v>0.004064591510930915</v>
       </c>
       <c r="T18">
-        <v>0.008690813274110767</v>
+        <v>0.004064591510930916</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>9.684806</v>
+        <v>3.211640333333333</v>
       </c>
       <c r="H19">
-        <v>29.054418</v>
+        <v>9.634920999999999</v>
       </c>
       <c r="I19">
-        <v>0.3381910632824783</v>
+        <v>0.1644870600972187</v>
       </c>
       <c r="J19">
-        <v>0.3381910632824783</v>
+        <v>0.1644870600972187</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.3815196666666667</v>
+        <v>0.09666633333333334</v>
       </c>
       <c r="N19">
-        <v>1.144559</v>
+        <v>0.289999</v>
       </c>
       <c r="O19">
-        <v>0.1517430325431922</v>
+        <v>0.02623986266913347</v>
       </c>
       <c r="P19">
-        <v>0.1517430325431922</v>
+        <v>0.02623986266913347</v>
       </c>
       <c r="Q19">
-        <v>3.694943956851334</v>
+        <v>0.3104574950087778</v>
       </c>
       <c r="R19">
-        <v>33.25449561166201</v>
+        <v>2.794117455079</v>
       </c>
       <c r="S19">
-        <v>0.05131813752148986</v>
+        <v>0.004316117867800522</v>
       </c>
       <c r="T19">
-        <v>0.05131813752148987</v>
+        <v>0.004316117867800522</v>
       </c>
     </row>
   </sheetData>
